--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_4_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-650506.0595995844</v>
+        <v>-652486.9761800097</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2630451.066553583</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14058254.23074971</v>
+        <v>14066703.43566346</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>305.5628998099682</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>213.2206004345699</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.5990957313719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>124.2826752554035</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>231.3319620527778</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>66.81653105453785</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>197.2982592812054</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>234.4970761400735</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>199.0440094192095</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>133.6709386027719</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>8.777525990011926</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>99.44420492154083</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>24.32337253107687</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18.89873761421843</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,7 +1777,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>80.00205620262099</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>243.6407236678888</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>109.9634471783211</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>33.20430972951689</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.21952718910637</v>
+        <v>47.20011114811107</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>47.27820527287722</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0314030821033</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2649,10 +2649,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>34.7136106351286</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.843519215189</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2886,10 +2886,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533798</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700704</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965487</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801169</v>
+        <v>76.60883284035741</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437376</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.11622243100346</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571459</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523544</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550458</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700199</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952705</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080335</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604797</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235373</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857123</v>
+        <v>80.4835828885718</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
-        <v>190.7165703189231</v>
+        <v>192.9654699154601</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8238751368068</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1061.976198199964</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.976198199964</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>703.7104995932134</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>703.7104995932134</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4419,10 +4419,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>573.1740092465172</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.1740092465172</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.293017861605</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>1628.293017861605</v>
+        <v>1103.85011622633</v>
       </c>
       <c r="D5" t="n">
-        <v>1270.027319254855</v>
+        <v>1103.85011622633</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1103.85011622633</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>692.8642114367221</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>274.900403334909</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186807</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925727</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>2014.892857925727</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>380.6911546495019</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>380.6911546495019</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>380.6911546495019</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1362.140678483279</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C8" t="n">
-        <v>993.1781615428677</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>993.1781615428677</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>993.1781615428677</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>582.1922567532602</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1362.140678483279</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210.7222632714565</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>210.7222632714565</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="Y10" t="n">
-        <v>210.7222632714565</v>
+        <v>372.9958041606071</v>
       </c>
     </row>
     <row r="11">
@@ -5027,37 +5027,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155894</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3735683412849</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C13" t="n">
-        <v>383.437385413378</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D13" t="n">
-        <v>233.3207460010423</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>233.3207460010423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>233.3207460010423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>233.3207460010423</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>985.7136853104474</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150547</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715246</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>190.6805289025654</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>339.7502131046252</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>953.6472828615139</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.9563154684962</v>
+        <v>622.9469297333503</v>
       </c>
       <c r="C16" t="n">
-        <v>392.0201325405893</v>
+        <v>622.9469297333503</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>472.8302903210146</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>324.9171967386214</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>178.0272492407111</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1252.814529479227</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1252.814529479227</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>963.3973594422661</v>
+        <v>843.7395088768804</v>
       </c>
       <c r="X16" t="n">
-        <v>963.3973594422661</v>
+        <v>843.7395088768804</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.6047802987359</v>
+        <v>622.9469297333503</v>
       </c>
     </row>
     <row r="17">
@@ -5492,52 +5492,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1027.850635690702</v>
+        <v>395.2468244550148</v>
       </c>
       <c r="C19" t="n">
-        <v>858.9144527627952</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D19" t="n">
-        <v>708.7978133504595</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>560.8847197680664</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5704,19 +5704,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.499100520942</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.499100520942</v>
+        <v>506.3210135240261</v>
       </c>
     </row>
     <row r="20">
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5756,25 +5756,25 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609663</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655739</v>
+        <v>731.3177283550795</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305957</v>
+        <v>441.9005583181189</v>
       </c>
       <c r="Y22" t="n">
-        <v>437.6964226305957</v>
+        <v>441.9005583181189</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,25 +6063,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,28 +6163,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.956765431391</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255036</v>
+        <v>755.1831334811259</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>465.7659634441653</v>
       </c>
       <c r="X25" t="n">
         <v>278.8655562905255</v>
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,31 +6215,31 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6251,25 +6251,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6279,52 +6279,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963125</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6339,7 +6339,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
         <v>1571.258395043133</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>896.5552164996855</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>727.6190335717786</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>577.5023941594428</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>429.5893005770497</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>282.6993530791393</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028587</v>
@@ -6382,52 +6382,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799355</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471178</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473452</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262958</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>1078.203681329925</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822465</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515102</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619132</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6516,49 +6516,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571601</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636234</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643584</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307616</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526312</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060425</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833455</v>
+        <v>494.8466681110212</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368098</v>
+        <v>381.671350464485</v>
       </c>
       <c r="D31" t="n">
-        <v>400.0258881058453</v>
+        <v>381.671350464485</v>
       </c>
       <c r="E31" t="n">
-        <v>307.8736598048233</v>
+        <v>304.2886910297806</v>
       </c>
       <c r="F31" t="n">
-        <v>216.7445775882842</v>
+        <v>304.2886910297806</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569673</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962053</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096195</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591124</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666608</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911019</v>
+        <v>957.9946671386962</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943729</v>
+        <v>785.7659815220495</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.444579432214</v>
+        <v>620.7342676598901</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636254</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7403,28 +7403,28 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
         <v>4454.632848899128</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,19 +7582,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2375.872413702068</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2006.909896761656</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1648.644198154905</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1262.855945556661</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>851.8700407670534</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>436.7975906120499</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>139.2139902208171</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>286.0962224193113</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>940.8195545546108</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1391.85376780302</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>1925.385672474944</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>2603.833516915168</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3483.798167244623</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4197.153254691569</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4655.631457200557</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4779.707779431612</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4669.417110958707</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4463.439363342929</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4209.908886616766</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3878.845999273196</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3526.077344003081</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3152.611585742001</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2762.47225376619</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>972.2488295092107</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>797.7958002280837</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>648.8613905668326</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>489.623935561377</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>343.0893775882621</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>206.7262774208807</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>116.2243830587483</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>190.8943609509032</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>429.1585599312504</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>795.8567202439158</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1243.133045466232</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1716.656089020686</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.617368438741</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2438.116959914844</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2595.758517561444</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
-        <v>2595.614164153959</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S45" t="n">
-        <v>2466.176277647439</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T45" t="n">
-        <v>2273.533277325294</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U45" t="n">
-        <v>2045.46543045971</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1810.313322227967</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
-        <v>1556.075965499766</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X45" t="n">
-        <v>1348.224465294233</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y45" t="n">
-        <v>1140.464166529279</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>790.1712248333965</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>668.6846748535629</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>566.0176683893005</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>465.5542077549807</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>366.1138932051436</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>245.8606895279358</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0931356938672</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8451091596281</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>439.3376773609109</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>802.4028610618136</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
-        <v>1193.065291913769</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1580.97905387204</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1926.81403804486</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>2205.926923730926</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2330.042605135848</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>2287.661780841449</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>2143.425529616349</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1969.108547133948</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1727.455313207665</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1520.220457949851</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1278.252920860964</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>1097.71300291102</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>924.3700567155629</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>52.49733361305248</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714913</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208121</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928411</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776804</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10431,7 +10431,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.7164198729829</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298192</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298008</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776741</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
-        <v>132.9990175570116</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>124.5904558364593</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037941</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>206.8109177748187</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>86.49151226075659</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,10 +23707,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>42.59662873068856</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>69.86853300361619</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>112.2167382934144</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.6124529928309</v>
+        <v>132.6318690338262</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>174.269355785512</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>40.67825230693384</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>131.779957828249</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338838</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14.62187317765479</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>48.17408940381666</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897867</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298318</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>4.973799150320701e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1224921.073261426</v>
+        <v>1239552.362411545</v>
       </c>
     </row>
   </sheetData>
@@ -26320,22 +26320,22 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="F2" t="n">
         <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="H2" t="n">
         <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="J2" t="n">
-        <v>215065.9828557399</v>
+        <v>215065.9828557398</v>
       </c>
       <c r="K2" t="n">
         <v>223752.1755398986</v>
@@ -26344,7 +26344,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925917</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284598</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086774</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>199883.8198755741</v>
+        <v>44162.60530284558</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
-        <v>29303.54555230231</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>29303.5455523023</v>
+        <v>29303.54555230235</v>
       </c>
       <c r="I4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>29303.54555230242</v>
+        <v>29303.5455523023</v>
       </c>
       <c r="K4" t="n">
-        <v>47468.16806649909</v>
+        <v>47468.16806649884</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.33279362279</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362273</v>
+        <v>51722.33279362283</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362271</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362277</v>
+        <v>51722.33279362282</v>
       </c>
       <c r="P4" t="n">
-        <v>30134.53761950704</v>
+        <v>51722.33279362282</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022281</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>101591.2743431396</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-621531.2478871021</v>
       </c>
       <c r="C6" t="n">
-        <v>-31563.36867255767</v>
+        <v>-31563.36867255758</v>
       </c>
       <c r="D6" t="n">
-        <v>-31563.36867255761</v>
+        <v>-31563.36867255764</v>
       </c>
       <c r="E6" t="n">
-        <v>-431384.9251221754</v>
+        <v>-431482.3842481474</v>
       </c>
       <c r="F6" t="n">
-        <v>93775.11135472094</v>
+        <v>93677.65222874875</v>
       </c>
       <c r="G6" t="n">
-        <v>93775.11135472092</v>
+        <v>93677.65222874872</v>
       </c>
       <c r="H6" t="n">
-        <v>93775.1113547209</v>
+        <v>93677.65222874862</v>
       </c>
       <c r="I6" t="n">
-        <v>93775.11135472091</v>
+        <v>93677.6522287487</v>
       </c>
       <c r="J6" t="n">
-        <v>-82648.10783787086</v>
+        <v>-82745.56696384428</v>
       </c>
       <c r="K6" t="n">
-        <v>35493.1936403307</v>
+        <v>35474.699902397</v>
       </c>
       <c r="L6" t="n">
-        <v>66006.14129816217</v>
+        <v>66006.14129816295</v>
       </c>
       <c r="M6" t="n">
-        <v>-58451.96713480726</v>
+        <v>-58451.96713480716</v>
       </c>
       <c r="N6" t="n">
-        <v>76349.04809902985</v>
+        <v>76349.04809902993</v>
       </c>
       <c r="O6" t="n">
-        <v>76349.04809902997</v>
+        <v>76349.0480990299</v>
       </c>
       <c r="P6" t="n">
-        <v>-105823.1451255428</v>
+        <v>32186.44279618435</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26756,28 +26756,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108315</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>34.04650311750942</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.010855334259032e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.70530256582424e-12</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>259.3942951391977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27382,22 +27382,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>101.3131459317432</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>173.0173382214837</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,13 +27588,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>57.43600972671234</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>94.30197809669129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>150.5984080194839</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>257.1062417098193</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,16 +27822,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>14.84727966881348</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>17.64056718375451</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>214.7401606015855</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>236.0601620756971</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>139.8379470282004</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,13 +28068,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>187.0787934150502</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855748</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.56319401867222e-12</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.40751256795913</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109201</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523362</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686844</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221192</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953152</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005173</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504654</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092045</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209228</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941228</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
         <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.428956600432</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,25 +37306,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349858</v>
@@ -37385,22 +37385,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>621.6037559756871</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>685.3008529699231</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
